--- a/trunk/experiments/nice_asr/results.xlsx
+++ b/trunk/experiments/nice_asr/results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="-180" windowWidth="20540" windowHeight="14680" tabRatio="500"/>
+    <workbookView xWindow="500" yWindow="-180" windowWidth="20540" windowHeight="14680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
   <si>
     <t>Overall performance</t>
   </si>
@@ -82,19 +82,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CRF 10 fold, vanillaFE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CRF, PhoneBigramFE, window size = 4 (extending 4 words to each side of the span)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CRF 10 folds, PhoneUnigramFE, window size = 2</t>
+    <t>CRF 10 folds, PhoneUnigramFE, window size = 4 (extending 4 words to each side of the span)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CRF 10 folds, PhoneUnigramFE, window size = 4 (extending 4 words to each side of the span)</t>
+    <t>CRF 10 folds, PhoneBigramFE, window size = 2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRF 10 fold, vanillaFE window size = 4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -484,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -517,7 +517,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="26">
@@ -775,7 +775,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="26">
@@ -1033,7 +1033,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="26">
@@ -1294,8 +1294,260 @@
         <v>20</v>
       </c>
     </row>
+    <row r="46" spans="1:7" ht="26">
+      <c r="A46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0.69340101522842601</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.390508862206975</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.49963423555230402</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.56721311475409797</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0.31830726770929102</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.40777843252799001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="26">
+      <c r="A47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.34615384615384598</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.480916030534351</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0.57407407407407396</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.27678571428571402</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.373493975903614</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="26">
+      <c r="A48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.70408163265306101</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0.41317365269460998</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.52075471698113196</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.60377358490566002</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.32323232323232298</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.42105263157894701</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="26">
+      <c r="A49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.56790123456790098</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.52272727272727204</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.54437869822485196</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0.40384615384615302</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G49" s="1">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="26">
+      <c r="A50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.42105263157894701</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.51612903225806395</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.66101694915254205</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="26">
+      <c r="A51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0.53571428571428503</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.28846153846153799</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.374999999999999</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0.45762711864406702</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0.27835051546391698</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0.34615384615384598</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="26">
+      <c r="A52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0.31963470319634701</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.42296072507552801</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.56521739130434701</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0.28467153284671498</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.37864077669902901</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="26">
+      <c r="A53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0.73786407766990203</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0.37810945273631802</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0.29220779220779203</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.39301310043668097</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="26">
+      <c r="A54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0.73043478260869499</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0.48554913294797603</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.56451612903225801</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0.31531531531531498</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.40462427745664697</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="26">
+      <c r="A55" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.75816993464052196</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.47154471544715398</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0.581453634085213</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0.56818181818181801</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0.40650406504065001</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.47393364928909898</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="26">
+      <c r="A56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.79365079365079305</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.30303030303030298</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0.43859649122806998</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.26213592233009703</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.38028169014084501</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/trunk/experiments/nice_asr/results.xlsx
+++ b/trunk/experiments/nice_asr/results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="24">
   <si>
     <t>Overall performance</t>
   </si>
@@ -55,47 +55,55 @@
   </si>
   <si>
     <t>Measurement Tag</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Token Prec</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Token Recall</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Token F1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Span Prec</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Span Recall</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Span F1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CRF, PhoneBigramFE, window size = 4 (extending 4 words to each side of the span)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CRF 10 folds, PhoneUnigramFE, window size = 4 (extending 4 words to each side of the span)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CRF 10 folds, PhoneBigramFE, window size = 2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CRF 10 fold, vanillaFE window size = 4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRF PhoneUnigram context only, window size = 2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRF PhoneUnigram context only, window size = 3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -108,8 +116,13 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
     </font>
@@ -148,11 +161,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -484,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1547,8 +1561,524 @@
         <v>0.38028169014084501</v>
       </c>
     </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="26">
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.73365041617122395</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.35277301315037102</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0.47644787644787601</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0.61142857142857099</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0.29530818767249301</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.39826302729528501</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="26">
+      <c r="A61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.74358974358974295</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.39455782312925097</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0.51555555555555499</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0.71111111111111103</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0.35955056179775202</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.47761194029850701</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="26">
+      <c r="A62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.65384615384615297</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.35172413793103402</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0.457399103139013</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0.247311827956989</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0.33093525179856098</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="26">
+      <c r="A63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.73786407766990203</v>
+      </c>
+      <c r="C63" s="1">
+        <v>0.39790575916230297</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0.51700680272108801</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0.43269230769230699</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0.53892215568862201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="26">
+      <c r="A64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0.62790697674418605</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0.33750000000000002</v>
+      </c>
+      <c r="D64" s="1">
+        <v>0.439024390243902</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0.51020408163265296</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0.21551724137931</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0.30303030303030298</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="26">
+      <c r="A65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0.70370370370370305</v>
+      </c>
+      <c r="C65" s="1">
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0.355140186915887</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0.19565217391304299</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0.29032258064516098</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="26">
+      <c r="A66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0.67469879518072196</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0.27586206896551702</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.391608391608391</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0.592592592592592</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0.26016260162601601</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.36158192090395402</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="26">
+      <c r="A67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0.278195488721804</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.404371584699453</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0.266666666666666</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0.36923076923076897</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="26">
+      <c r="A68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0.796875</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0.36956521739130399</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.50495049504950495</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0.62790697674418605</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0.32142857142857101</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.42519685039369998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="26">
+      <c r="A69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="1">
+        <v>0.82307692307692304</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0.37024221453287198</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.51073985680190903</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0.632911392405063</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0.27624309392265101</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.38461538461538403</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="26">
+      <c r="A70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0.77391304347825995</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0.48633879781420702</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.59731543624160999</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0.608108108108108</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0.39130434782608697</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.476190476190476</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="26">
+      <c r="A73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0.65227021040974498</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0.33676386506575101</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.44419306184011997</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0.52612612612612597</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0.26862925482980599</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.35566382460414098</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="26">
+      <c r="A74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0.37037037037037002</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.48780487804877998</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0.64383561643835596</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0.34306569343065602</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.44761904761904697</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="26">
+      <c r="A75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0.73786407766990203</v>
+      </c>
+      <c r="C75" s="1">
+        <v>0.42937853107344598</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.54285714285714204</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0.61538461538461497</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0.330578512396694</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.43010752688171999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="26">
+      <c r="A76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0.34645669291338499</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.43137254901960698</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0.44318181818181801</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0.234939759036144</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.30708661417322802</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="26">
+      <c r="A77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0.31088082901554398</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.42402826855123599</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0.472727272727272</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.35616438356164298</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="26">
+      <c r="A78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0.59756097560975596</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.42241379310344801</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.49494949494949497</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0.53846153846153799</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0.33734939759036098</v>
+      </c>
+      <c r="G78" s="1">
+        <v>0.41481481481481403</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="26">
+      <c r="A79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="1">
+        <v>0.73170731707317005</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.28708133971291799</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0.41237113402061798</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0.64912280701754299</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0.26618705035971202</v>
+      </c>
+      <c r="G79" s="1">
+        <v>0.37755102040816302</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="26">
+      <c r="A80" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.30337078651685301</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0.41221374045801501</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0.42307692307692302</v>
+      </c>
+      <c r="F80" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="G80" s="1">
+        <v>0.28947368421052599</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="26">
+      <c r="A81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0.40816326530612201</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0.140845070422535</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0.20942408376963301</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0.30434782608695599</v>
+      </c>
+      <c r="F81" s="1">
+        <v>7.4468085106382906E-2</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0.119658119658119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="26">
+      <c r="A82" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0.77419354838709598</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.41142857142857098</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0.53731343283582</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0.37894736842105198</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0.46451612903225797</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="26">
+      <c r="A83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0.59375</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.32022471910112299</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0.41605839416058399</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0.375</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0.18918918918918901</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0.25149700598802299</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/trunk/experiments/nice_asr/results.xlsx
+++ b/trunk/experiments/nice_asr/results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="25">
   <si>
     <t>Overall performance</t>
   </si>
@@ -55,55 +55,59 @@
   </si>
   <si>
     <t>Measurement Tag</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Token Prec</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Token Recall</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Token F1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Span Prec</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Span Recall</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Span F1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CRF, PhoneBigramFE, window size = 4 (extending 4 words to each side of the span)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CRF 10 folds, PhoneUnigramFE, window size = 4 (extending 4 words to each side of the span)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CRF 10 folds, PhoneBigramFE, window size = 2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CRF 10 fold, vanillaFE window size = 4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CRF PhoneUnigram context only, window size = 2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CRF PhoneUnigram context only, window size = 3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRF PhoneUnigram, window size = 2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -116,8 +120,13 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
     </font>
@@ -161,11 +170,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -498,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1303,782 +1313,1041 @@
         <v>0.34285714285714203</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="3" t="s">
-        <v>20</v>
+    <row r="43" spans="1:7">
+      <c r="A43" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="26">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.70964247020585003</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.374499714122355</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.49026946107784403</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.59420289855072395</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0.30174793008279599</v>
+      </c>
+      <c r="G44" s="1">
+        <v>0.40024405125076201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="26">
+      <c r="A45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0.63888888888888795</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.37704918032786799</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.47422680412371099</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0.39622641509433898</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="26">
       <c r="A46" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B46" s="1">
-        <v>0.69340101522842601</v>
+        <v>0.78740157480314898</v>
       </c>
       <c r="C46" s="1">
-        <v>0.390508862206975</v>
+        <v>0.36900369003689998</v>
       </c>
       <c r="D46" s="1">
-        <v>0.49963423555230402</v>
+        <v>0.50251256281406997</v>
       </c>
       <c r="E46" s="1">
-        <v>0.56721311475409797</v>
+        <v>0.61728395061728303</v>
       </c>
       <c r="F46" s="1">
-        <v>0.31830726770929102</v>
+        <v>0.32894736842105199</v>
       </c>
       <c r="G46" s="1">
-        <v>0.40777843252799001</v>
+        <v>0.42918454935622302</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="26">
       <c r="A47" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B47" s="1">
-        <v>0.78749999999999998</v>
+        <v>0.78064516129032202</v>
       </c>
       <c r="C47" s="1">
-        <v>0.34615384615384598</v>
+        <v>0.62694300518134705</v>
       </c>
       <c r="D47" s="1">
-        <v>0.480916030534351</v>
+        <v>0.69540229885057403</v>
       </c>
       <c r="E47" s="1">
-        <v>0.57407407407407396</v>
+        <v>0.65048543689320304</v>
       </c>
       <c r="F47" s="1">
-        <v>0.27678571428571402</v>
+        <v>0.57264957264957195</v>
       </c>
       <c r="G47" s="1">
-        <v>0.373493975903614</v>
+        <v>0.60909090909090902</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="26">
       <c r="A48" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B48" s="1">
-        <v>0.70408163265306101</v>
+        <v>0.61224489795918302</v>
       </c>
       <c r="C48" s="1">
-        <v>0.41317365269460998</v>
+        <v>0.29126213592233002</v>
       </c>
       <c r="D48" s="1">
-        <v>0.52075471698113196</v>
+        <v>0.394736842105263</v>
       </c>
       <c r="E48" s="1">
-        <v>0.60377358490566002</v>
+        <v>0.56923076923076898</v>
       </c>
       <c r="F48" s="1">
-        <v>0.32323232323232298</v>
+        <v>0.25342465753424598</v>
       </c>
       <c r="G48" s="1">
-        <v>0.42105263157894701</v>
+        <v>0.350710900473933</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="26">
       <c r="A49" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B49" s="1">
-        <v>0.56790123456790098</v>
+        <v>0.65432098765432101</v>
       </c>
       <c r="C49" s="1">
-        <v>0.52272727272727204</v>
+        <v>0.27040816326530598</v>
       </c>
       <c r="D49" s="1">
-        <v>0.54437869822485196</v>
+        <v>0.382671480144404</v>
       </c>
       <c r="E49" s="1">
-        <v>0.40384615384615302</v>
+        <v>0.45</v>
       </c>
       <c r="F49" s="1">
-        <v>0.35</v>
+        <v>0.15384615384615299</v>
       </c>
       <c r="G49" s="1">
-        <v>0.375</v>
+        <v>0.22929936305732401</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="26">
       <c r="A50" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B50" s="1">
-        <v>0.66666666666666596</v>
+        <v>0.64367816091954</v>
       </c>
       <c r="C50" s="1">
-        <v>0.42105263157894701</v>
+        <v>0.434108527131782</v>
       </c>
       <c r="D50" s="1">
-        <v>0.51612903225806395</v>
+        <v>0.51851851851851805</v>
       </c>
       <c r="E50" s="1">
-        <v>0.66101694915254205</v>
+        <v>0.60784313725490102</v>
       </c>
       <c r="F50" s="1">
-        <v>0.42857142857142799</v>
+        <v>0.373493975903614</v>
       </c>
       <c r="G50" s="1">
-        <v>0.52</v>
+        <v>0.462686567164179</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="26">
       <c r="A51" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B51" s="1">
-        <v>0.53571428571428503</v>
+        <v>0.69672131147540906</v>
       </c>
       <c r="C51" s="1">
-        <v>0.28846153846153799</v>
+        <v>0.36956521739130399</v>
       </c>
       <c r="D51" s="1">
-        <v>0.374999999999999</v>
+        <v>0.48295454545454503</v>
       </c>
       <c r="E51" s="1">
-        <v>0.45762711864406702</v>
+        <v>0.53731343283582</v>
       </c>
       <c r="F51" s="1">
-        <v>0.27835051546391698</v>
+        <v>0.24324324324324301</v>
       </c>
       <c r="G51" s="1">
-        <v>0.34615384615384598</v>
+        <v>0.334883720930232</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="26">
       <c r="A52" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B52" s="1">
-        <v>0.625</v>
+        <v>0.58928571428571397</v>
       </c>
       <c r="C52" s="1">
-        <v>0.31963470319634701</v>
+        <v>0.37931034482758602</v>
       </c>
       <c r="D52" s="1">
-        <v>0.42296072507552801</v>
+        <v>0.46153846153846101</v>
       </c>
       <c r="E52" s="1">
-        <v>0.56521739130434701</v>
+        <v>0.45454545454545398</v>
       </c>
       <c r="F52" s="1">
-        <v>0.28467153284671498</v>
+        <v>0.30612244897959101</v>
       </c>
       <c r="G52" s="1">
-        <v>0.37864077669902901</v>
+        <v>0.36585365853658502</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="26">
       <c r="A53" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B53" s="1">
-        <v>0.73786407766990203</v>
+        <v>0.79365079365079305</v>
       </c>
       <c r="C53" s="1">
-        <v>0.37810945273631802</v>
+        <v>0.29411764705882298</v>
       </c>
       <c r="D53" s="1">
-        <v>0.5</v>
+        <v>0.42918454935622302</v>
       </c>
       <c r="E53" s="1">
-        <v>0.6</v>
+        <v>0.72222222222222199</v>
       </c>
       <c r="F53" s="1">
-        <v>0.29220779220779203</v>
+        <v>0.242990654205607</v>
       </c>
       <c r="G53" s="1">
-        <v>0.39301310043668097</v>
+        <v>0.36363636363636298</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="26">
       <c r="A54" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B54" s="1">
-        <v>0.73043478260869499</v>
+        <v>0.82258064516129004</v>
       </c>
       <c r="C54" s="1">
-        <v>0.48554913294797603</v>
+        <v>0.35172413793103402</v>
       </c>
       <c r="D54" s="1">
-        <v>0.58333333333333304</v>
+        <v>0.49275362318840499</v>
       </c>
       <c r="E54" s="1">
-        <v>0.56451612903225801</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="F54" s="1">
-        <v>0.31531531531531498</v>
+        <v>0.27551020408163202</v>
       </c>
       <c r="G54" s="1">
-        <v>0.40462427745664697</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="26">
-      <c r="A55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="1">
-        <v>0.75816993464052196</v>
-      </c>
-      <c r="C55" s="1">
-        <v>0.47154471544715398</v>
-      </c>
-      <c r="D55" s="1">
-        <v>0.581453634085213</v>
-      </c>
-      <c r="E55" s="1">
-        <v>0.56818181818181801</v>
-      </c>
-      <c r="F55" s="1">
-        <v>0.40650406504065001</v>
-      </c>
-      <c r="G55" s="1">
-        <v>0.47393364928909898</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="26">
-      <c r="A56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" s="1">
-        <v>0.79365079365079305</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0.30303030303030298</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0.43859649122806998</v>
-      </c>
-      <c r="E56" s="1">
-        <v>0.69230769230769196</v>
-      </c>
-      <c r="F56" s="1">
-        <v>0.26213592233009703</v>
-      </c>
-      <c r="G56" s="1">
-        <v>0.38028169014084501</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="4" t="s">
-        <v>22</v>
+        <v>0.39130434782608597</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="26">
+      <c r="A58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.69340101522842601</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0.390508862206975</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0.49963423555230402</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0.56721311475409797</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0.31830726770929102</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.40777843252799001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="26">
+      <c r="A59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.78749999999999998</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.34615384615384598</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0.480916030534351</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0.57407407407407396</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0.27678571428571402</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.373493975903614</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="26">
       <c r="A60" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B60" s="1">
-        <v>0.73365041617122395</v>
+        <v>0.70408163265306101</v>
       </c>
       <c r="C60" s="1">
-        <v>0.35277301315037102</v>
+        <v>0.41317365269460998</v>
       </c>
       <c r="D60" s="1">
-        <v>0.47644787644787601</v>
+        <v>0.52075471698113196</v>
       </c>
       <c r="E60" s="1">
-        <v>0.61142857142857099</v>
+        <v>0.60377358490566002</v>
       </c>
       <c r="F60" s="1">
-        <v>0.29530818767249301</v>
+        <v>0.32323232323232298</v>
       </c>
       <c r="G60" s="1">
-        <v>0.39826302729528501</v>
+        <v>0.42105263157894701</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="26">
       <c r="A61" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B61" s="1">
-        <v>0.74358974358974295</v>
+        <v>0.56790123456790098</v>
       </c>
       <c r="C61" s="1">
-        <v>0.39455782312925097</v>
+        <v>0.52272727272727204</v>
       </c>
       <c r="D61" s="1">
-        <v>0.51555555555555499</v>
+        <v>0.54437869822485196</v>
       </c>
       <c r="E61" s="1">
-        <v>0.71111111111111103</v>
+        <v>0.40384615384615302</v>
       </c>
       <c r="F61" s="1">
-        <v>0.35955056179775202</v>
+        <v>0.35</v>
       </c>
       <c r="G61" s="1">
-        <v>0.47761194029850701</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="26">
       <c r="A62" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B62" s="1">
-        <v>0.65384615384615297</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="C62" s="1">
-        <v>0.35172413793103402</v>
+        <v>0.42105263157894701</v>
       </c>
       <c r="D62" s="1">
-        <v>0.457399103139013</v>
+        <v>0.51612903225806395</v>
       </c>
       <c r="E62" s="1">
-        <v>0.5</v>
+        <v>0.66101694915254205</v>
       </c>
       <c r="F62" s="1">
-        <v>0.247311827956989</v>
+        <v>0.42857142857142799</v>
       </c>
       <c r="G62" s="1">
-        <v>0.33093525179856098</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="26">
       <c r="A63" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B63" s="1">
-        <v>0.73786407766990203</v>
+        <v>0.53571428571428503</v>
       </c>
       <c r="C63" s="1">
-        <v>0.39790575916230297</v>
+        <v>0.28846153846153799</v>
       </c>
       <c r="D63" s="1">
-        <v>0.51700680272108801</v>
+        <v>0.374999999999999</v>
       </c>
       <c r="E63" s="1">
-        <v>0.71428571428571397</v>
+        <v>0.45762711864406702</v>
       </c>
       <c r="F63" s="1">
-        <v>0.43269230769230699</v>
+        <v>0.27835051546391698</v>
       </c>
       <c r="G63" s="1">
-        <v>0.53892215568862201</v>
+        <v>0.34615384615384598</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="26">
       <c r="A64" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B64" s="1">
-        <v>0.62790697674418605</v>
+        <v>0.625</v>
       </c>
       <c r="C64" s="1">
-        <v>0.33750000000000002</v>
+        <v>0.31963470319634701</v>
       </c>
       <c r="D64" s="1">
-        <v>0.439024390243902</v>
+        <v>0.42296072507552801</v>
       </c>
       <c r="E64" s="1">
-        <v>0.51020408163265296</v>
+        <v>0.56521739130434701</v>
       </c>
       <c r="F64" s="1">
-        <v>0.21551724137931</v>
+        <v>0.28467153284671498</v>
       </c>
       <c r="G64" s="1">
-        <v>0.30303030303030298</v>
+        <v>0.37864077669902901</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="26">
       <c r="A65" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B65" s="1">
-        <v>0.70370370370370305</v>
+        <v>0.73786407766990203</v>
       </c>
       <c r="C65" s="1">
-        <v>0.23749999999999999</v>
+        <v>0.37810945273631802</v>
       </c>
       <c r="D65" s="1">
-        <v>0.355140186915887</v>
+        <v>0.5</v>
       </c>
       <c r="E65" s="1">
-        <v>0.5625</v>
+        <v>0.6</v>
       </c>
       <c r="F65" s="1">
-        <v>0.19565217391304299</v>
+        <v>0.29220779220779203</v>
       </c>
       <c r="G65" s="1">
-        <v>0.29032258064516098</v>
+        <v>0.39301310043668097</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="26">
       <c r="A66" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B66" s="1">
-        <v>0.67469879518072196</v>
+        <v>0.73043478260869499</v>
       </c>
       <c r="C66" s="1">
-        <v>0.27586206896551702</v>
+        <v>0.48554913294797603</v>
       </c>
       <c r="D66" s="1">
-        <v>0.391608391608391</v>
+        <v>0.58333333333333304</v>
       </c>
       <c r="E66" s="1">
-        <v>0.592592592592592</v>
+        <v>0.56451612903225801</v>
       </c>
       <c r="F66" s="1">
-        <v>0.26016260162601601</v>
+        <v>0.31531531531531498</v>
       </c>
       <c r="G66" s="1">
-        <v>0.36158192090395402</v>
+        <v>0.40462427745664697</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="26">
       <c r="A67" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B67" s="1">
-        <v>0.74</v>
+        <v>0.75816993464052196</v>
       </c>
       <c r="C67" s="1">
-        <v>0.278195488721804</v>
+        <v>0.47154471544715398</v>
       </c>
       <c r="D67" s="1">
-        <v>0.404371584699453</v>
+        <v>0.581453634085213</v>
       </c>
       <c r="E67" s="1">
-        <v>0.6</v>
+        <v>0.56818181818181801</v>
       </c>
       <c r="F67" s="1">
-        <v>0.266666666666666</v>
+        <v>0.40650406504065001</v>
       </c>
       <c r="G67" s="1">
-        <v>0.36923076923076897</v>
+        <v>0.47393364928909898</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="26">
       <c r="A68" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B68" s="1">
-        <v>0.796875</v>
+        <v>0.79365079365079305</v>
       </c>
       <c r="C68" s="1">
-        <v>0.36956521739130399</v>
+        <v>0.30303030303030298</v>
       </c>
       <c r="D68" s="1">
-        <v>0.50495049504950495</v>
+        <v>0.43859649122806998</v>
       </c>
       <c r="E68" s="1">
-        <v>0.62790697674418605</v>
+        <v>0.69230769230769196</v>
       </c>
       <c r="F68" s="1">
-        <v>0.32142857142857101</v>
+        <v>0.26213592233009703</v>
       </c>
       <c r="G68" s="1">
-        <v>0.42519685039369998</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="26">
-      <c r="A69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B69" s="1">
-        <v>0.82307692307692304</v>
-      </c>
-      <c r="C69" s="1">
-        <v>0.37024221453287198</v>
-      </c>
-      <c r="D69" s="1">
-        <v>0.51073985680190903</v>
-      </c>
-      <c r="E69" s="1">
-        <v>0.632911392405063</v>
-      </c>
-      <c r="F69" s="1">
-        <v>0.27624309392265101</v>
-      </c>
-      <c r="G69" s="1">
-        <v>0.38461538461538403</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="26">
-      <c r="A70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B70" s="1">
-        <v>0.77391304347825995</v>
-      </c>
-      <c r="C70" s="1">
-        <v>0.48633879781420702</v>
-      </c>
-      <c r="D70" s="1">
-        <v>0.59731543624160999</v>
-      </c>
-      <c r="E70" s="1">
-        <v>0.608108108108108</v>
-      </c>
-      <c r="F70" s="1">
-        <v>0.39130434782608697</v>
-      </c>
-      <c r="G70" s="1">
-        <v>0.476190476190476</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="4" t="s">
-        <v>23</v>
+        <v>0.38028169014084501</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="26">
+      <c r="A72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0.73365041617122395</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0.35277301315037102</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.47644787644787601</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0.61142857142857099</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0.29530818767249301</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.39826302729528501</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="26">
       <c r="A73" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B73" s="1">
-        <v>0.65227021040974498</v>
+        <v>0.74358974358974295</v>
       </c>
       <c r="C73" s="1">
-        <v>0.33676386506575101</v>
+        <v>0.39455782312925097</v>
       </c>
       <c r="D73" s="1">
-        <v>0.44419306184011997</v>
+        <v>0.51555555555555499</v>
       </c>
       <c r="E73" s="1">
-        <v>0.52612612612612597</v>
+        <v>0.71111111111111103</v>
       </c>
       <c r="F73" s="1">
-        <v>0.26862925482980599</v>
+        <v>0.35955056179775202</v>
       </c>
       <c r="G73" s="1">
-        <v>0.35566382460414098</v>
+        <v>0.47761194029850701</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="26">
       <c r="A74" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B74" s="1">
-        <v>0.71428571428571397</v>
+        <v>0.65384615384615297</v>
       </c>
       <c r="C74" s="1">
-        <v>0.37037037037037002</v>
+        <v>0.35172413793103402</v>
       </c>
       <c r="D74" s="1">
-        <v>0.48780487804877998</v>
+        <v>0.457399103139013</v>
       </c>
       <c r="E74" s="1">
-        <v>0.64383561643835596</v>
+        <v>0.5</v>
       </c>
       <c r="F74" s="1">
-        <v>0.34306569343065602</v>
+        <v>0.247311827956989</v>
       </c>
       <c r="G74" s="1">
-        <v>0.44761904761904697</v>
+        <v>0.33093525179856098</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="26">
       <c r="A75" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B75" s="1">
         <v>0.73786407766990203</v>
       </c>
       <c r="C75" s="1">
-        <v>0.42937853107344598</v>
+        <v>0.39790575916230297</v>
       </c>
       <c r="D75" s="1">
-        <v>0.54285714285714204</v>
+        <v>0.51700680272108801</v>
       </c>
       <c r="E75" s="1">
-        <v>0.61538461538461497</v>
+        <v>0.71428571428571397</v>
       </c>
       <c r="F75" s="1">
-        <v>0.330578512396694</v>
+        <v>0.43269230769230699</v>
       </c>
       <c r="G75" s="1">
-        <v>0.43010752688171999</v>
+        <v>0.53892215568862201</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="26">
       <c r="A76" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B76" s="1">
-        <v>0.57142857142857095</v>
+        <v>0.62790697674418605</v>
       </c>
       <c r="C76" s="1">
-        <v>0.34645669291338499</v>
+        <v>0.33750000000000002</v>
       </c>
       <c r="D76" s="1">
-        <v>0.43137254901960698</v>
+        <v>0.439024390243902</v>
       </c>
       <c r="E76" s="1">
-        <v>0.44318181818181801</v>
+        <v>0.51020408163265296</v>
       </c>
       <c r="F76" s="1">
-        <v>0.234939759036144</v>
+        <v>0.21551724137931</v>
       </c>
       <c r="G76" s="1">
-        <v>0.30708661417322802</v>
+        <v>0.30303030303030298</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="26">
       <c r="A77" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B77" s="1">
-        <v>0.66666666666666596</v>
+        <v>0.70370370370370305</v>
       </c>
       <c r="C77" s="1">
-        <v>0.31088082901554398</v>
+        <v>0.23749999999999999</v>
       </c>
       <c r="D77" s="1">
-        <v>0.42402826855123599</v>
+        <v>0.355140186915887</v>
       </c>
       <c r="E77" s="1">
-        <v>0.472727272727272</v>
+        <v>0.5625</v>
       </c>
       <c r="F77" s="1">
-        <v>0.28571428571428498</v>
+        <v>0.19565217391304299</v>
       </c>
       <c r="G77" s="1">
-        <v>0.35616438356164298</v>
+        <v>0.29032258064516098</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="26">
       <c r="A78" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B78" s="1">
-        <v>0.59756097560975596</v>
+        <v>0.67469879518072196</v>
       </c>
       <c r="C78" s="1">
-        <v>0.42241379310344801</v>
+        <v>0.27586206896551702</v>
       </c>
       <c r="D78" s="1">
-        <v>0.49494949494949497</v>
+        <v>0.391608391608391</v>
       </c>
       <c r="E78" s="1">
-        <v>0.53846153846153799</v>
+        <v>0.592592592592592</v>
       </c>
       <c r="F78" s="1">
-        <v>0.33734939759036098</v>
+        <v>0.26016260162601601</v>
       </c>
       <c r="G78" s="1">
-        <v>0.41481481481481403</v>
+        <v>0.36158192090395402</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="26">
       <c r="A79" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B79" s="1">
-        <v>0.73170731707317005</v>
+        <v>0.74</v>
       </c>
       <c r="C79" s="1">
-        <v>0.28708133971291799</v>
+        <v>0.278195488721804</v>
       </c>
       <c r="D79" s="1">
-        <v>0.41237113402061798</v>
+        <v>0.404371584699453</v>
       </c>
       <c r="E79" s="1">
-        <v>0.64912280701754299</v>
+        <v>0.6</v>
       </c>
       <c r="F79" s="1">
-        <v>0.26618705035971202</v>
+        <v>0.266666666666666</v>
       </c>
       <c r="G79" s="1">
-        <v>0.37755102040816302</v>
+        <v>0.36923076923076897</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="26">
       <c r="A80" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B80" s="1">
-        <v>0.64285714285714202</v>
+        <v>0.796875</v>
       </c>
       <c r="C80" s="1">
-        <v>0.30337078651685301</v>
+        <v>0.36956521739130399</v>
       </c>
       <c r="D80" s="1">
-        <v>0.41221374045801501</v>
+        <v>0.50495049504950495</v>
       </c>
       <c r="E80" s="1">
-        <v>0.42307692307692302</v>
+        <v>0.62790697674418605</v>
       </c>
       <c r="F80" s="1">
-        <v>0.22</v>
+        <v>0.32142857142857101</v>
       </c>
       <c r="G80" s="1">
-        <v>0.28947368421052599</v>
+        <v>0.42519685039369998</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="26">
       <c r="A81" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B81" s="1">
-        <v>0.40816326530612201</v>
+        <v>0.82307692307692304</v>
       </c>
       <c r="C81" s="1">
-        <v>0.140845070422535</v>
+        <v>0.37024221453287198</v>
       </c>
       <c r="D81" s="1">
-        <v>0.20942408376963301</v>
+        <v>0.51073985680190903</v>
       </c>
       <c r="E81" s="1">
-        <v>0.30434782608695599</v>
+        <v>0.632911392405063</v>
       </c>
       <c r="F81" s="1">
-        <v>7.4468085106382906E-2</v>
+        <v>0.27624309392265101</v>
       </c>
       <c r="G81" s="1">
-        <v>0.119658119658119</v>
+        <v>0.38461538461538403</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="26">
       <c r="A82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0.77391304347825995</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.48633879781420702</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0.59731543624160999</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0.608108108108108</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0.39130434782608697</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0.476190476190476</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="26">
+      <c r="A85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0.65227021040974498</v>
+      </c>
+      <c r="C85" s="1">
+        <v>0.33676386506575101</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0.44419306184011997</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0.52612612612612597</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0.26862925482980599</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0.35566382460414098</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="26">
+      <c r="A86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.37037037037037002</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0.48780487804877998</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0.64383561643835596</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0.34306569343065602</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0.44761904761904697</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="26">
+      <c r="A87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0.73786407766990203</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.42937853107344598</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0.54285714285714204</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0.61538461538461497</v>
+      </c>
+      <c r="F87" s="1">
+        <v>0.330578512396694</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0.43010752688171999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="26">
+      <c r="A88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0.57142857142857095</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0.34645669291338499</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0.43137254901960698</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0.44318181818181801</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0.234939759036144</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0.30708661417322802</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="26">
+      <c r="A89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.31088082901554398</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0.42402826855123599</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0.472727272727272</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="G89" s="1">
+        <v>0.35616438356164298</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="26">
+      <c r="A90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0.59756097560975596</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0.42241379310344801</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0.49494949494949497</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0.53846153846153799</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0.33734939759036098</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0.41481481481481403</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="26">
+      <c r="A91" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="1">
+        <v>0.73170731707317005</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0.28708133971291799</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0.41237113402061798</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0.64912280701754299</v>
+      </c>
+      <c r="F91" s="1">
+        <v>0.26618705035971202</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0.37755102040816302</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="26">
+      <c r="A92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0.64285714285714202</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0.30337078651685301</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0.41221374045801501</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0.42307692307692302</v>
+      </c>
+      <c r="F92" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0.28947368421052599</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="26">
+      <c r="A93" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0.40816326530612201</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0.140845070422535</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.20942408376963301</v>
+      </c>
+      <c r="E93" s="1">
+        <v>0.30434782608695599</v>
+      </c>
+      <c r="F93" s="1">
+        <v>7.4468085106382906E-2</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0.119658119658119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="26">
+      <c r="A94" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B94" s="1">
         <v>0.77419354838709598</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C94" s="1">
         <v>0.41142857142857098</v>
       </c>
-      <c r="D82" s="1">
+      <c r="D94" s="1">
         <v>0.53731343283582</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E94" s="1">
         <v>0.6</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F94" s="1">
         <v>0.37894736842105198</v>
       </c>
-      <c r="G82" s="1">
+      <c r="G94" s="1">
         <v>0.46451612903225797</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="26">
-      <c r="A83" s="1" t="s">
+    <row r="95" spans="1:7" ht="26">
+      <c r="A95" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B95" s="1">
         <v>0.59375</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C95" s="1">
         <v>0.32022471910112299</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D95" s="1">
         <v>0.41605839416058399</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E95" s="1">
         <v>0.375</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F95" s="1">
         <v>0.18918918918918901</v>
       </c>
-      <c r="G83" s="1">
+      <c r="G95" s="1">
         <v>0.25149700598802299</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
